--- a/dev/oee/doc/OEE参数说明表.xlsx
+++ b/dev/oee/doc/OEE参数说明表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="1"/>
+    <workbookView windowWidth="11520" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="业务数据说明表" sheetId="1" r:id="rId1"/>
@@ -332,24 +332,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="18">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="#."/>
-    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="178" formatCode="m\o\n\th\ d\,\ yyyy"/>
-    <numFmt numFmtId="179" formatCode="&quot;Bs.&quot;* #,##0.0_);&quot;Bs.&quot;* \(#,##0.0\);&quot;Bs.&quot;* 0.0_);&quot;Bs.&quot;* @_)"/>
-    <numFmt numFmtId="180" formatCode="#,##0.0_)&quot;Pts.&quot;;\(#,##0.0\)&quot;Pts.&quot;;0.0_)&quot;Pts.&quot;;@_)&quot;Pts.&quot;"/>
-    <numFmt numFmtId="181" formatCode="General_)"/>
-    <numFmt numFmtId="182" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="183" formatCode="#,##0.0_);\(#,##0.0\);0.0_);@_)"/>
-    <numFmt numFmtId="184" formatCode="#.00"/>
-    <numFmt numFmtId="185" formatCode="&quot; $&quot;* #,##0.0_);&quot; $&quot;* \(#,##0.0\);&quot; $&quot;* 0.0_);&quot; $&quot;* @_)"/>
-    <numFmt numFmtId="186" formatCode="#,##0.0_)&quot;%&quot;;\(#,##0.0\)&quot;%&quot;;0.0_)&quot;%&quot;;@_)&quot;%&quot;"/>
-    <numFmt numFmtId="187" formatCode="#,##0.0_)_P_t_s_.;\(#,##0.0\)_P_t_s_.;0.0_)_P_t_s_.;@_)_P_t_s_."/>
-    <numFmt numFmtId="188" formatCode="0.00_)"/>
-    <numFmt numFmtId="189" formatCode="#,##0.0_)_%;\(#,##0.0\)_%;0.0_)_%;@_)_%"/>
+    <numFmt numFmtId="176" formatCode="m\o\n\th\ d\,\ yyyy"/>
+    <numFmt numFmtId="177" formatCode="#."/>
+    <numFmt numFmtId="178" formatCode="General_)"/>
+    <numFmt numFmtId="179" formatCode="#,##0.0_);\(#,##0.0\);0.0_);@_)"/>
+    <numFmt numFmtId="180" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="181" formatCode="#,##0.0_)_%;\(#,##0.0\)_%;0.0_)_%;@_)_%"/>
+    <numFmt numFmtId="182" formatCode="#.00"/>
+    <numFmt numFmtId="183" formatCode="#,##0.0_)&quot;%&quot;;\(#,##0.0\)&quot;%&quot;;0.0_)&quot;%&quot;;@_)&quot;%&quot;"/>
+    <numFmt numFmtId="184" formatCode="&quot; $&quot;* #,##0.0_);&quot; $&quot;* \(#,##0.0\);&quot; $&quot;* 0.0_);&quot; $&quot;* @_)"/>
+    <numFmt numFmtId="185" formatCode="&quot;Bs.&quot;* #,##0.0_);&quot;Bs.&quot;* \(#,##0.0\);&quot;Bs.&quot;* 0.0_);&quot;Bs.&quot;* @_)"/>
+    <numFmt numFmtId="186" formatCode="#,##0.0_)&quot;Pts.&quot;;\(#,##0.0\)&quot;Pts.&quot;;0.0_)&quot;Pts.&quot;;@_)&quot;Pts.&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="188" formatCode="#,##0.0_)_P_t_s_.;\(#,##0.0\)_P_t_s_.;0.0_)_P_t_s_.;@_)_P_t_s_."/>
+    <numFmt numFmtId="189" formatCode="0.00_)"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -368,8 +368,140 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Helv"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helv"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,98 +515,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <name val="MS Sans Serif"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Helv"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Helv"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Geneva"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="1"/>
-      <color indexed="8"/>
-      <name val="Courier"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -486,14 +529,41 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="1"/>
+      <color indexed="8"/>
+      <name val="Courier"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="1"/>
+      <color indexed="8"/>
+      <name val="Courier"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Helv"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Geneva"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -502,69 +572,6 @@
       <sz val="11"/>
       <name val="Helv"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Geneva"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Helv"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="1"/>
-      <color indexed="8"/>
-      <name val="Courier"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -575,13 +582,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -615,19 +615,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,163 +777,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,21 +861,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -887,6 +872,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -909,19 +914,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -952,24 +970,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -984,200 +984,200 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="40" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="187" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="186" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="184" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="182" fontId="26" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="38" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11"/>
-    <xf numFmtId="188" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="30" fillId="35" borderId="4" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13"/>
+    <xf numFmtId="189" fontId="32" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="187" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="188" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="189" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="186" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="183" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="14">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="14">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -1296,8 +1296,8 @@
     <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
     <cellStyle name="强调文字颜色 5" xfId="48" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="49" builtinId="47"/>
-    <cellStyle name="Bolivars" xfId="50"/>
-    <cellStyle name="General" xfId="51"/>
+    <cellStyle name="General" xfId="50"/>
+    <cellStyle name="Bolivars" xfId="51"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="52" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="53" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="54" builtinId="51"/>
@@ -1306,8 +1306,8 @@
     <cellStyle name="category" xfId="57"/>
     <cellStyle name="Comma_5 Series SW" xfId="58"/>
     <cellStyle name="Currency $" xfId="59"/>
-    <cellStyle name="Currency_ARN (2)" xfId="60"/>
-    <cellStyle name="Date" xfId="61"/>
+    <cellStyle name="Date" xfId="60"/>
+    <cellStyle name="Currency_ARN (2)" xfId="61"/>
     <cellStyle name="Dollars" xfId="62"/>
     <cellStyle name="Pct w/ Pts" xfId="63"/>
     <cellStyle name="Fixed" xfId="64"/>
@@ -1592,8 +1592,8 @@
   <sheetPr/>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>
@@ -1947,8 +1947,8 @@
   <sheetPr/>
   <dimension ref="A2:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="3"/>
